--- a/output/google_maps_data_Penginapan_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Penginapan_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Kota+Yogyakarta/@-7.8068008,110.3463372,14z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>-7.817489</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.817489</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.35824</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Grand+Surya+Hotel+Yogyakarta/@-7.8174893,110.3221906,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57be3d8151c9:0x58132389ce27bc13!5m2!4m1!1i2!8m2!3d-7.8174893!4d110.3582395!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11xjhkp4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Grand+Surya+Hotel+Yogyakarta/@-7.8174893,110.3221906,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57be3d8151c9:0x58132389ce27bc13!5m2!4m1!1i2!8m2!3d-7.8174893!4d110.3582395!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11xjhkp4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -572,25 +565,24 @@
           <t>0811-4988-333</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.818138</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.818138</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.370485</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Otu+Hostel/@-7.8174893,110.3221906,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57a25a4f70cd:0x4eede3a10e4b7621!5m2!4m1!1i2!8m2!3d-7.818138!4d110.3704853!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBmhvc3RlbOABAA!16s%2Fg%2F11hbklpb0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,25 +605,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>-7.781041</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.781041</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.366818</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Tugu+Yogyakarta/@-7.7810414,110.3307687,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a583a07ed52f1:0x1216ec2b5ec22a30!5m2!4m1!1i2!8m2!3d-7.7810414!4d110.3668176!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11f_wtp1z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Tugu+Yogyakarta/@-7.7810414,110.3307687,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a583a07ed52f1:0x1216ec2b5ec22a30!5m2!4m1!1i2!8m2!3d-7.7810414!4d110.3668176!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11f_wtp1z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -659,25 +650,24 @@
           <t>0819-1491-3931</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.828255</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.828255</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.377822</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tiga+Dua+Homestay/@-7.8282546,110.3417734,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57a82ffcc549:0xb20404d6248f0a2b!5m2!4m1!1i2!8m2!3d-7.8282546!4d110.3778223!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11d_1sbbgl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -700,25 +690,24 @@
           <t>0856-4374-9900</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>-7.793432</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.793432</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.369387</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jogja+Backpacker+Home/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a58285529da09:0x50190d24ea46baa1!5m2!4m1!1i2!8m2!3d-7.7934325!4d110.3693874!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBmhvc3RlbOABAA!16s%2Fg%2F11c6shqqjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -733,25 +722,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>-7.796965</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.796965</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.371008</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hotel/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57876aecd9bf:0x928061c77d7e870e!5m2!4m1!1i2!8m2!3d-7.7969654!4d110.3710079!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F1ty2bb72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hotel/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57876aecd9bf:0x928061c77d7e870e!5m2!4m1!1i2!8m2!3d-7.7969654!4d110.3710079!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F1ty2bb72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -779,25 +767,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>-7.807437</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.807437</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.356166</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPOT+ON+2857+Hotel+Pelangi/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a5792a2ca9573:0x7fd1c36252e086db!5m2!4m1!1i2!8m2!3d-7.8074372!4d110.3561655!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11frf80mvh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -820,25 +807,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>-7.779398</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.779398</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.364075</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Urbanview+Omah+Eka+Santi+by+RedDoorz/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a5839a371ffa7:0x2892903edef1c2c4!5m2!4m1!1i2!8m2!3d-7.7793985!4d110.3640747!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F1vhjwf9m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -861,25 +847,24 @@
           <t>0813-1242-9282</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>-7.793263</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.793263</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.358988</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Penginapan+Prima+Syariah+Murah+Dekat+Malioboro+%7C+Ready+Kamar+Backpacker+Sekitar+Stasiun+Tugu+Jogja/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a58216c9b88e1:0x362619549bfcd159!5m2!4m1!1i2!8m2!3d-7.7932626!4d110.3589877!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11gghdhdq1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -902,25 +887,24 @@
           <t>0813-8678-8669</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.797056</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.797056</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.370452</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Front+One+Cabin+Malioboro+Jogja/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a578712fde2bd:0xba208e0d139f2670!5m2!4m1!1i2!8m2!3d-7.7970564!4d110.3704515!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11ff5m_bpm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -943,25 +927,24 @@
           <t>0858-0642-0852</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>-7.791485</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.791485</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.35647</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Java+Homestay/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a59cfdd0b692b:0xf93ddf2ef2a15b25!5m2!4m1!1i2!8m2!3d-7.791485!4d110.3564702!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11h9kq1jls?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Java+Homestay/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a59cfdd0b692b:0xf93ddf2ef2a15b25!5m2!4m1!1i2!8m2!3d-7.791485!4d110.3564702!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11h9kq1jls?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>4 minggu lalu di 
 Google</t>
@@ -989,25 +972,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.1</v>
+        <v>-7.789042</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.789042</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.370879</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hotel+Sekar+Ayu/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a582e866f5ffd:0xcf1d98017df6c34a!5m2!4m1!1i2!8m2!3d-7.7890418!4d110.3708786!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11g1lsfwv9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1030,25 +1012,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-7.803071</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.803071</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.355676</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Titik+Nol+Yogyakarta/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57f2c4370af7:0x502635c9234a92d4!5m2!4m1!1i2!8m2!3d-7.8030711!4d110.355676!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h8j_slyx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Titik+Nol+Yogyakarta/@-7.7934325,110.3333385,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57f2c4370af7:0x502635c9234a92d4!5m2!4m1!1i2!8m2!3d-7.8030711!4d110.355676!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h8j_slyx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -1076,25 +1057,24 @@
           <t>0851-8723-3465</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.782794</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.782794</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.388866</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Newly+Mutiara+Residence+Near+Lippo+Mall+Yogyakarta/@-7.7827939,110.3528167,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a59448e8ccd77:0x3c868af7530c8c43!5m2!4m1!1i2!8m2!3d-7.7827939!4d110.3888656!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11wxfhxdsz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1113,25 +1093,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.795864</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.795864</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.386131</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+Hostel+near+Stadion+Mandala+Krida+Yogya/@-7.7827939,110.3528167,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a577cea2d645f:0xce88caecfecc75f8!5m2!4m1!1i2!8m2!3d-7.7958645!4d110.3861308!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h9bdxw7q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+Hostel+near+Stadion+Mandala+Krida+Yogya/@-7.7827939,110.3528167,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a577cea2d645f:0xce88caecfecc75f8!5m2!4m1!1i2!8m2!3d-7.7958645!4d110.3861308!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11h9bdxw7q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -1159,25 +1138,24 @@
           <t>0877-7638-4171</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.834204</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.834204</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.369234</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+@+Omah+Kayu+Homestay+Yogyakarta/@-7.834204,110.3331851,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57ada8acecb1:0xf0e640403c5a3c4c!5m2!4m1!1i2!8m2!3d-7.834204!4d110.369234!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11ddxnlfxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+@+Omah+Kayu+Homestay+Yogyakarta/@-7.834204,110.3331851,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57ada8acecb1:0xf0e640403c5a3c4c!5m2!4m1!1i2!8m2!3d-7.834204!4d110.369234!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11ddxnlfxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -1205,25 +1183,24 @@
           <t>0819-9847-1232</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.796562</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.796562</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.363002</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Yogyakarta+BnB+Malioboro/@-7.7965617,110.3269529,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a5789d0837ce1:0x9dc6fb76e6837e7f!5m2!4m1!1i2!8m2!3d-7.7965617!4d110.3630018!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11cjhs50l_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1242,25 +1219,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>-7.781486</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.781486</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.366692</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Golden+Inn+Yogyakarta+2/@-7.7965617,110.3269529,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a592939281461:0x67e06070ec66766e!5m2!4m1!1i2!8m2!3d-7.781486!4d110.3666915!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBBWhvdGVs4AEA!16s%2Fg%2F11fhr1k2ch?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1279,25 +1255,24 @@
           <t>0813-2864-9814</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.80859</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.80859</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.345008</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sonosewu+Guesthouse/@-7.8085901,110.3089593,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57d8cb683323:0xe01870fe4ec42c2d!5m2!4m1!1i2!8m2!3d-7.8085901!4d110.3450082!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11f5vdv53b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sonosewu+Guesthouse/@-7.8085901,110.3089593,14z/data=!4m14!1m3!2m2!1sPenginapan+Kota+Yogyakarta!6e3!3m9!1s0x2e7a57d8cb683323:0xe01870fe4ec42c2d!5m2!4m1!1i2!8m2!3d-7.8085901!4d110.3450082!15sChpQZW5naW5hcGFuIEtvdGEgWW9neWFrYXJ0YZIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11f5vdv53b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>23 jam lalu di 
 Google</t>
